--- a/QALegendProject/src/test/resources/TestData.xlsx
+++ b/QALegendProject/src/test/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\QALegendProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\QALegend\QALegendProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58474DF-FD1E-4AFF-BBD4-9737562574B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504447A9-51F6-4395-B6EA-4608D58C309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
     <sheet name="PasswordResetPage" sheetId="1" r:id="rId2"/>
+    <sheet name="UserManagementPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Valid emailid</t>
   </si>
@@ -71,6 +72,21 @@
   </si>
   <si>
     <t>Welcome Admin,</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Sales Commision %</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Specialist</t>
   </si>
 </sst>
 </file>
@@ -390,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E138E54-41DD-4B86-BC10-F5A13288B14C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +498,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8936174E-6B3E-40E5-8D48-0CF70179F3F7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QALegendProject/src/test/resources/TestData.xlsx
+++ b/QALegendProject/src/test/resources/TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\QALegend\QALegendProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504447A9-51F6-4395-B6EA-4608D58C309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889EAF2-2873-4930-894E-58592910E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
     <sheet name="PasswordResetPage" sheetId="1" r:id="rId2"/>
     <sheet name="UserManagementPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ViewUserPage" sheetId="4" r:id="rId4"/>
+    <sheet name="EditUserPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Valid emailid</t>
   </si>
@@ -87,6 +89,24 @@
   </si>
   <si>
     <t>Specialist</t>
+  </si>
+  <si>
+    <t>Expected Text</t>
+  </si>
+  <si>
+    <t>View User</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -504,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8936174E-6B3E-40E5-8D48-0CF70179F3F7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +559,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8514FB-344C-48C2-AF2F-61AD6EB082F9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E83509-4B9F-4A6D-ADC3-B58E7EF40D87}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QALegendProject/src/test/resources/TestData.xlsx
+++ b/QALegendProject/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\QALegend\QALegendProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889EAF2-2873-4930-894E-58592910E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF19695-D941-4C3D-A695-177964B9F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
